--- a/pred_ohlcv/54_21/2020-01-16 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ETC ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>7062.40355347208</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>6819.098553472079</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>7675.803453472079</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>7029.232353472079</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -912,7 +912,7 @@
         <v>10442.56140860639</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>9436.735508606393</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9319.615608606393</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>10524.73450860639</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>10406.59420860639</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>8842.274368923854</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>7570.195668923855</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6798.780168923855</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5826.255968923855</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>4488.524150598873</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5266.095150598873</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5728.409650598874</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6501.709650598874</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6152.693650598874</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5608.579550598874</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>7025.488250598874</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>7197.486350598874</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6914.466950598874</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>8281.421139252856</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>8501.548539252857</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>11044.69123925286</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>11671.92971663454</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>11303.73451663454</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>11336.26361663454</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>11446.26361663454</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>11558.63231663454</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>11357.63231663454</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>11442.71911663454</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>12054.30501663454</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>11618.42971663454</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>11820.65751663454</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>11820.65751663454</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>11188.15911663454</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>11307.58911663454</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>11407.58911663454</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>11612.58001663455</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>13769.89461663455</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>13418.59701663455</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>13782.15111663455</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>13755.34741663455</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>13855.34741663455</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>13211.26371663455</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>13537.91761663455</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>13164.87223068184</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>13538.22943068184</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>12981.83013068184</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>12749.46083068184</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>13146.56423068184</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>13141.81263068184</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>13148.71263068184</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>13148.71263068184</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>13047.99703068184</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>12857.99703068184</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>12713.38913068184</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>12990.82773068184</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>13018.05983068184</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>13003.68623068184</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>13003.68623068184</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>13003.68623068184</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>13011.37653068184</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>12984.55003068184</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>13009.87803068184</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>13011.47803068184</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>13011.47803068184</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>13011.47803068184</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>12769.62573068184</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>12870.62573068184</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>12909.25573068184</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>12907.79703068184</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>12909.39703068184</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>12899.39703068184</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>13153.69473068184</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>13153.69473068184</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>13153.69473068184</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>13126.68223068184</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>13243.83513068183</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>13243.83513068183</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>13243.83513068183</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>13258.31003068183</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>13377.19873068183</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>13449.14633068183</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>12496.72952546563</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>12555.41242546563</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>12555.23882546563</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>12717.41838319477</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>14336.39058319477</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>13405.27851335753</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>35860.67479762719</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>38058.48319762719</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>38387.9682991023</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>40196.16792188342</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>41858.10282188342</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>42598.58222188341</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>41489.27352188341</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>41489.27352188341</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>41324.34902188341</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>41324.34902188341</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>39451.89240338311</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>39091.97010338311</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>39064.1894033831</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>39415.58760338311</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>41556.74140338311</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>38800.67535044193</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>39288.89485044193</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>38859.54725044193</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>39662.14595044193</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>39150.39665044193</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>39577.23835044193</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>39558.23835044193</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>40158.08585044193</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>38006.23485044193</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>37532.39305044193</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>35253.03205044192</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>35225.94895044192</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>35498.10495044192</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>35498.10495044192</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>59335.53288859999</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>59235.53288859999</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>59542.69658859999</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>59873.9925255085</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>60191.3326255085</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>60191.3326255085</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>60620.99552550851</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>88820.26534360509</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>86716.75774360509</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>87624.61674360509</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>84212.27034360509</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>83889.22164360509</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>84116.22154360509</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>85034.15064360508</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>85597.70214360509</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>85072.72614360509</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>85500.02304360509</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>84735.5495436051</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>84874.0873436051</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>83351.79824360511</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>88738.18154360511</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>84884.71984360511</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>85432.73544360511</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>83788.26644360511</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>80704.30144360512</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>81500.40604360512</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>83512.28704360512</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>82650.39464360512</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>82073.94094360512</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>84781.56844360512</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>83687.45654360512</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>85627.37184360511</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>85407.09234360511</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>86085.46744360511</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>86038.66244360511</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>86659.16704360511</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>87078.30444360511</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ETC ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>9436.735508606393</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9319.615608606393</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>10524.73450860639</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>10406.59420860639</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>8842.274368923854</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5826.255968923855</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>4488.524150598873</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5266.095150598873</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5728.409650598874</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6501.709650598874</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6152.693650598874</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5608.579550598874</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>7025.488250598874</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>7197.486350598874</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6914.466950598874</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>8281.421139252856</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>11303.73451663454</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>11539.04491663454</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>11336.26361663454</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>11446.26361663454</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>11558.63231663454</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>11357.63231663454</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>11442.71911663454</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>11442.71911663454</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>11618.42971663454</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>11845.18141663454</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>11652.90871663455</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>11692.81371663455</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>11529.97161663455</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>11474.02231663455</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>11432.26751663455</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>11861.66751663454</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>11738.32981663454</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>11548.82321663454</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>11662.62321663454</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>11775.32321663454</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>11921.55751663454</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>11820.65751663454</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>11820.65751663454</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>11188.15911663454</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>11307.58911663454</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>11407.58911663454</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>11612.58001663455</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>13299.46751663455</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>13340.03651663455</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>13083.76111663455</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>13083.76111663455</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>12799.56881663455</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>13059.01491663455</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>13192.24861663455</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>13386.38931663455</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>13428.76781663455</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>13288.85571663455</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>13550.88491663455</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>13546.81181663455</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>13446.01321663455</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>13371.75761663455</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>13577.75761663455</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>13567.95761663455</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>13743.61811663455</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>13743.61811663455</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>13761.22771663455</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>13782.15111663455</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>13755.34741663455</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>13855.34741663455</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>13318.70931663455</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>13649.70931663455</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>13502.46981663455</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>13537.91761663455</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>12599.61153068184</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>13405.27851335753</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>35860.67479762719</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>38058.48319762719</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>38387.9682991023</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>40196.16792188342</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>41858.10282188342</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>42598.58222188341</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>41489.27352188341</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>41489.27352188341</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>41324.34902188341</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>41324.34902188341</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>39451.89240338311</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>39091.97010338311</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>39064.1894033831</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>39415.58760338311</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>41556.74140338311</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>38800.67535044193</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>39288.89485044193</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>38859.54725044193</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>39662.14595044193</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>39150.39665044193</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>39577.23835044193</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>39558.23835044193</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>40158.08585044193</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>38006.23485044193</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>37532.39305044193</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>35253.03205044192</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>35225.94895044192</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>35498.10495044192</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>35498.10495044192</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>53747.2038178368</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>53747.2038178368</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>53747.2038178368</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>52491.81611525398</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>51416.27541525399</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>51349.12151525399</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>51714.95221684129</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>51477.60481684129</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>51723.52441684129</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>51724.92441684129</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>51064.04641684129</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>51543.00041684129</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>51201.10274316951</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>50925.42734316951</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>49807.17144316951</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>50236.11584316951</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>48128.49843854318</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>47638.33283854318</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>48210.34413854318</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>48795.09643854318</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>49048.77243854318</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>50390.55521842484</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>50257.96331842484</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>50257.96331842484</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>50484.86551842483</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>50265.42791842484</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>50366.42621842484</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>50366.42621842484</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>50507.55331842483</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>51548.40621842483</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>52308.59605218878</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>51854.02445218877</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>52519.87375218877</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>54160.87841740617</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>52834.25768716958</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>52837.75668716958</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>52337.69718716958</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>52424.83828716958</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>52410.23128716958</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>52426.18128716957</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>51621.90718716957</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>51894.87968716957</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>52353.07968716957</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>52134.90808716957</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>52134.90808716957</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>51504.0359751509</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>51124.9695751509</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>50818.1151751509</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>50305.8841751509</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>50221.7468751509</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>49625.0791751509</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>50156.84706875462</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>49768.54563384617</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>48619.10663384618</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>59335.53288859999</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>59235.53288859999</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>59542.69658859999</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>60061.52868859999</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>59873.9925255085</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>60191.3326255085</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>60191.3326255085</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>60620.99552550851</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>82226.46865993421</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>82045.86395993421</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>82068.43075993421</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>82152.99895993421</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>82273.7800599342</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>82952.22719162435</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>86066.14616687299</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>88820.26534360509</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>86837.43684360509</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>86036.63884360509</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>86716.75774360509</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>87624.61674360509</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>84212.27034360509</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>83889.22164360509</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>84116.22154360509</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>85034.15064360508</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>85597.70214360509</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>85072.72614360509</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>85500.02304360509</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>84735.5495436051</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>84874.0873436051</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>83351.79824360511</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>88738.18154360511</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>84884.71984360511</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>85432.73544360511</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>83788.26644360511</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>80704.30144360512</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>81500.40604360512</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>83512.28704360512</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>82650.39464360512</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>82073.94094360512</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>83687.45654360512</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>85627.37184360511</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>85407.09234360511</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>86085.46744360511</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>85612.10744360511</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>86038.66244360511</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>86724.79624360512</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>86665.42624360512</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>86239.41964360513</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>82626.41954360512</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>82994.07704360512</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>83522.90204360512</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>82428.29924360513</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>82673.90254360513</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>84495.95784360514</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>84744.18224360514</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>85202.40414360515</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>85452.00304360515</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>84652.51464360514</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>83553.53004360515</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>83132.34054360515</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>83253.34054360515</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>83229.12444360515</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>83326.76304360515</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>82297.08464360515</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>82334.69344360515</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>82334.69344360515</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>82248.51574360514</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>83029.62574360514</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>82309.89799514908</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>82578.37749514908</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>82560.11359514907</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>82660.11359514907</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>82806.43529514907</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>82789.63529514907</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>82573.99429514907</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>82879.67589514906</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>82879.67589514906</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>82869.66549514906</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>82869.66549514906</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>82918.19139514906</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>81558.84649514906</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>81454.56709514906</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>82609.96229514905</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>81634.98773857925</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>80973.26053857926</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>80973.26053857926</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>81070.26053857926</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>81188.47123857925</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>81192.17123857925</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>81203.73043857925</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>81221.88433857926</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>81185.48493857926</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>80931.70113857926</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>80752.17373857925</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>81433.55861312148</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>80188.22835702141</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>80144.45485702141</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>80139.45485702141</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>79934.26425060048</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>79684.60615060048</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>79553.61525060047</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>79888.86715060048</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>79888.86715060048</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>79769.19865060048</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>79900.67735060048</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>79844.14735060048</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>79856.17325060048</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>79918.25605060048</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>80727.17525060049</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>80667.66625060048</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>80472.92205060048</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>80444.07465060048</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>80528.02095060048</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>80268.53865060047</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>80268.53865060047</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>80056.93345060047</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>79374.75425060047</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>79246.24455060047</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>80213.42525060047</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>80310.42525060047</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>80270.62425060046</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>80271.74765060046</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>80569.93965060046</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>80564.10855060046</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>82432.18251907683</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>82394.35591907683</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>82039.43921907683</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>82032.39001907683</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>82127.80241907683</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>82023.35321907683</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>81021.31501907684</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>81021.31501907684</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>80930.17501907684</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>80770.17501907684</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>80776.33961907684</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>80660.55841907684</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>80660.55841907684</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>79758.62051907684</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>80720.22741907684</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>81834.08807832279</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>81967.55287832279</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>82377.3973783228</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>82094.5107783228</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>82424.9647783228</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>82043.7370783228</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>81940.7370783228</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>82206.7975783228</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>82449.9740783228</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>84398.41321150733</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>84140.82311150733</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>84002.07501150733</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>83562.12751150734</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>84137.23711150733</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>84092.80561150733</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>83670.45351150732</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>82799.81211150733</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>82799.81211150733</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
